--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Completed </t>
+  </si>
+  <si>
+    <t>userType02</t>
+  </si>
+  <si>
+    <t>Search Button Value</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification Details </t>
+  </si>
+  <si>
+    <t>AT_DC_ID_001</t>
+  </si>
+  <si>
+    <t>DS_AT_DC_ID_001</t>
+  </si>
+  <si>
+    <t>0343</t>
+  </si>
+  <si>
+    <t>3061</t>
   </si>
 </sst>
 </file>
@@ -103,7 +127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,26 +197,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -487,12 +520,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -518,9 +554,15 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
@@ -672,80 +714,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -756,9 +808,265 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="4"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,10 @@
     <t>DS_AT_DC_ID_001</t>
   </si>
   <si>
+    <t>3061</t>
+  </si>
+  <si>
     <t>0343</t>
-  </si>
-  <si>
-    <t>3061</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -832,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>0343</t>
+  </si>
+  <si>
+    <t>0371</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>Offering Screen</t>
+  </si>
+  <si>
+    <t>AT_OF_OFD_001</t>
+  </si>
+  <si>
+    <t>DS_AT_OF_OFD_001</t>
+  </si>
+  <si>
+    <t>3214</t>
   </si>
 </sst>
 </file>
@@ -521,7 +539,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,9 +583,15 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
@@ -717,7 +741,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,7 +883,9 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -887,9 +913,15 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -103,6 +103,48 @@
   </si>
   <si>
     <t>3214</t>
+  </si>
+  <si>
+    <t>in02040</t>
+  </si>
+  <si>
+    <t>userType04</t>
+  </si>
+  <si>
+    <t>New Application Customer Reference</t>
+  </si>
+  <si>
+    <t>AT_NEWAPP_CR_001</t>
+  </si>
+  <si>
+    <t>DS_AT_NEWAPP_CR_001</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>3302</t>
+  </si>
+  <si>
+    <t>App Data Entery Documents Details</t>
+  </si>
+  <si>
+    <t>Murabha</t>
+  </si>
+  <si>
+    <t>AT_MU_DOC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DOC_01</t>
+  </si>
+  <si>
+    <t>0332</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>1710</t>
   </si>
 </sst>
 </file>
@@ -538,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,14 +636,26 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
@@ -731,6 +785,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2" display="Admin@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -740,14 +795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -947,7 +1002,9 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -975,9 +1032,15 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1003,7 +1066,9 @@
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1017,7 +1082,9 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1045,9 +1112,15 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>UserName</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>1710</t>
+  </si>
+  <si>
+    <t>App Data Entery Cust FololowUP</t>
+  </si>
+  <si>
+    <t>AT_MU_FU_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_FU_01</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3393</t>
   </si>
 </sst>
 </file>
@@ -580,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,14 +671,20 @@
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
@@ -786,6 +810,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2" display="Admin@1"/>
+    <hyperlink ref="C6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -793,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,7 +1171,9 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1172,6 +1199,180 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Morabha_AppDataEntry" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>UserName</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>3393</t>
+  </si>
+  <si>
+    <t>AT_MU_FU_005</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_FU_005</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Search BTn  Matching FollowUp Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Btn MisMatching FollowUp Details </t>
+  </si>
+  <si>
+    <t>312</t>
   </si>
 </sst>
 </file>
@@ -205,7 +223,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -275,7 +299,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -298,6 +322,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -598,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +854,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1382,12 +1415,308 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="2" r:id="rId2"/>
     <sheet name="Morabha_AppDataEntry" sheetId="3" r:id="rId3"/>
+    <sheet name="Mura_ADEntery_CustomerEMPdet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>UserName</t>
   </si>
@@ -181,6 +182,93 @@
   </si>
   <si>
     <t>312</t>
+  </si>
+  <si>
+    <t>0363</t>
+  </si>
+  <si>
+    <t>Ijara AppDataCheck Insurance Info</t>
+  </si>
+  <si>
+    <t>Ijara</t>
+  </si>
+  <si>
+    <t>App Data Check Insurance Info</t>
+  </si>
+  <si>
+    <t>AT_IJ_IA_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_IA_01</t>
+  </si>
+  <si>
+    <t>3620</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Murabha App Data Entrey</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EMPD_07</t>
+  </si>
+  <si>
+    <t>NatureOfEmployement</t>
+  </si>
+  <si>
+    <t>EmployementPeriod</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>TotalExperience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Antony Das</t>
+  </si>
+  <si>
+    <t>6888</t>
+  </si>
+  <si>
+    <t>EmploymentType</t>
+  </si>
+  <si>
+    <t>ShareHolderPercentage</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EmployerNameSpecialChar</t>
+  </si>
+  <si>
+    <t>@@</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_08</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EMPD_08</t>
   </si>
 </sst>
 </file>
@@ -267,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,6 +378,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -299,7 +398,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -332,6 +431,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -629,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,9 +745,10 @@
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -675,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -686,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -697,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -708,58 +814,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D7" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -844,6 +962,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2" display="Admin@1"/>
     <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -854,7 +973,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,7 +1387,9 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1282,7 +1403,9 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1310,9 +1433,15 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1417,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,4 +1848,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>UserName</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>DS_AT_MU_EMPD_08</t>
+  </si>
+  <si>
+    <t>Murabha App Data Check --Qutation nd Insurance Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murabha App Data Check Insurance </t>
+  </si>
+  <si>
+    <t>And Quatation  Info</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_IA_01</t>
+  </si>
+  <si>
+    <t>AT_MU_IA_01</t>
+  </si>
+  <si>
+    <t>3546</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>userType08</t>
   </si>
 </sst>
 </file>
@@ -398,7 +422,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -436,6 +460,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,7 +862,7 @@
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -843,9 +870,18 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
@@ -963,6 +999,7 @@
     <hyperlink ref="C5" r:id="rId2" display="Admin@1"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,15 +1007,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
@@ -1467,7 +1504,9 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="7"/>
+      <c r="A30" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1481,7 +1520,9 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
+      <c r="A31" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1509,9 +1550,15 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1535,6 +1582,48 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Morabha_AppDataEntry" sheetId="3" r:id="rId3"/>
     <sheet name="Mura_ADEntery_CustomerEMPdet" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>UserName</t>
   </si>
@@ -293,6 +293,27 @@
   </si>
   <si>
     <t>userType08</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>Tawarruq App Data Check ---   EmploymentDetails</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>Tawarruq App Data Entry Employment Details</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_07</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_EMPD_07</t>
+  </si>
+  <si>
+    <t>3611</t>
   </si>
 </sst>
 </file>
@@ -422,7 +443,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -465,6 +486,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -763,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,9 +906,18 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4"/>
@@ -1007,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1584,7 +1615,9 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1612,9 +1645,15 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1624,6 +1663,174 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,7 +1843,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="2" r:id="rId2"/>
     <sheet name="Morabha_AppDataEntry" sheetId="3" r:id="rId3"/>
     <sheet name="Mura_ADEntery_CustomerEMPdet" sheetId="4" r:id="rId4"/>
+    <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId5"/>
+    <sheet name="Tawarruq_ADEntry_LivingExpenses" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="169">
   <si>
     <t>UserName</t>
   </si>
@@ -314,6 +316,216 @@
   </si>
   <si>
     <t>3611</t>
+  </si>
+  <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>Pension Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Invalid Data</t>
+  </si>
+  <si>
+    <t>Adjusted %</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Deduction_Frequency</t>
+  </si>
+  <si>
+    <t>Deduction_Amt</t>
+  </si>
+  <si>
+    <t>Deduction_Adj%</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Mismatched Currency</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_01</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_02</t>
+  </si>
+  <si>
+    <t>CASH RENTAL INCOME</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>HDFC BANK</t>
+  </si>
+  <si>
+    <t>VASHI</t>
+  </si>
+  <si>
+    <t>PROVIDEND FUND</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_03</t>
+  </si>
+  <si>
+    <t>Commission Income</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>JAIPUR BRANCH</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_04</t>
+  </si>
+  <si>
+    <t>Rental Income In Bank</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_05</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_06</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_07</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_08</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_08</t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
+    <t>Tawarruq App Data Entry Living Expenses</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_LEA_001</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_LEA_001</t>
+  </si>
+  <si>
+    <t>3853</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>clientNameselect</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>NeagtiveAmount</t>
+  </si>
+  <si>
+    <t>specialCharAmount</t>
+  </si>
+  <si>
+    <t>stringAmount</t>
+  </si>
+  <si>
+    <t>ExpectedCostOfLiving</t>
+  </si>
+  <si>
+    <t>MinimumCostOfLiving</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prabanjan gdg </t>
+  </si>
+  <si>
+    <t>AT_TW_AD_LEA_002</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_LEA_002</t>
   </si>
 </sst>
 </file>
@@ -443,7 +655,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -486,7 +698,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -785,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,12 +1131,14 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
@@ -1040,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1897,9 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7"/>
+      <c r="A39" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1707,9 +1927,15 @@
       <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2150,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2290,4 +2516,566 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1450000</v>
+      </c>
+      <c r="E3" s="19">
+        <v>13000</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="19">
+        <v>85000</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19">
+        <v>100</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1500</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>100</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="19">
+        <v>58000</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
+        <v>100</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="19">
+        <v>750</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>100</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1150500</v>
+      </c>
+      <c r="E5" s="19">
+        <v>18500</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D6" s="19">
+        <v>880000</v>
+      </c>
+      <c r="E6" s="19">
+        <v>8950</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="19">
+        <v>22000</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3393</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="20">
+        <v>100</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="20">
+        <v>-100</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>UserName</t>
   </si>
@@ -526,6 +526,45 @@
   </si>
   <si>
     <t>DS_AT_TW_AD_LEA_002</t>
+  </si>
+  <si>
+    <t>Tawarruq_CommodityMaker----AdocPayment</t>
+  </si>
+  <si>
+    <t>Tawarruq Commodity  Maker  -- Adoc Payment</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_06</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CSM_06</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>3967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawarruq Offering - Offering Stage </t>
+  </si>
+  <si>
+    <t>AT_TW_OFO_13</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_OFO_13</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>Tawarruq Offering - Offering Stage</t>
+  </si>
+  <si>
+    <t>3841</t>
   </si>
 </sst>
 </file>
@@ -612,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -646,6 +685,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -655,7 +703,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -703,6 +751,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -1002,7 +1053,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,13 +1190,29 @@
       <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
@@ -1256,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1961,7 +2028,9 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="7"/>
+      <c r="A43" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1989,9 +2058,15 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2017,7 +2092,9 @@
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="7"/>
+      <c r="A47" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2045,9 +2122,15 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -2057,6 +2140,258 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="211">
   <si>
     <t>UserName</t>
   </si>
@@ -565,6 +565,93 @@
   </si>
   <si>
     <t>3841</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>userType12</t>
+  </si>
+  <si>
+    <t>Murabha Contract Singing</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_CS_05</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>3097</t>
+  </si>
+  <si>
+    <t>Murabha Purchas Checker</t>
+  </si>
+  <si>
+    <t>Murabha Purchase Checker</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_15</t>
+  </si>
+  <si>
+    <t>DS_AT_M_PUR_15</t>
+  </si>
+  <si>
+    <t>4061</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Murabha UnderWriter</t>
+  </si>
+  <si>
+    <t>Murabha UnderWriter</t>
+  </si>
+  <si>
+    <t>4044</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_006_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_UNW_006_05</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>userType04_SA</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>userType15</t>
+  </si>
+  <si>
+    <t>Autoloan AppData Entry Customer Details</t>
+  </si>
+  <si>
+    <t>AutoLoan AppData Entry Customer Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT_Al_CD_01 </t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>DS_AT_Al_CD_01</t>
   </si>
 </sst>
 </file>
@@ -703,7 +790,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -752,6 +839,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1064,7 +1160,7 @@
     <col min="4" max="4" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1130,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1144,7 +1240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1158,7 +1254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -1172,7 +1268,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -1186,7 +1282,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
@@ -1200,111 +1296,159 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1316,6 +1460,10 @@
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
     <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1323,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2156,7 +2304,9 @@
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="7"/>
+      <c r="A51" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2184,9 +2334,15 @@
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2212,7 +2368,9 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="7"/>
+      <c r="A55" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2240,9 +2398,15 @@
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -2268,7 +2432,9 @@
       <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7"/>
+      <c r="A59" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2296,9 +2462,15 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
+      <c r="A61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -2338,7 +2510,9 @@
       <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="7"/>
+      <c r="A64" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2366,9 +2540,15 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -2392,6 +2572,86 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="224">
   <si>
     <t>UserName</t>
   </si>
@@ -123,9 +123,6 @@
     <t>DS_AT_NEWAPP_CR_001</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>3302</t>
   </si>
   <si>
@@ -652,6 +649,48 @@
   </si>
   <si>
     <t>DS_AT_Al_CD_01</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_DOC_001</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_ADC_DOC_001</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>userType16</t>
+  </si>
+  <si>
+    <t>Tawarruq app data check document details</t>
+  </si>
+  <si>
+    <t>4650</t>
+  </si>
+  <si>
+    <t>userType17</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>Ijara AppData Entry Facility Details</t>
+  </si>
+  <si>
+    <t>AT_FAC_DET_01</t>
+  </si>
+  <si>
+    <t>DS_AT_FAC_DET_01</t>
+  </si>
+  <si>
+    <t>Ijara AppDataEntry Facility Details</t>
+  </si>
+  <si>
+    <t>tawarrq AppData Check Document Details</t>
+  </si>
+  <si>
+    <t>0375</t>
   </si>
 </sst>
 </file>
@@ -790,7 +829,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -848,6 +887,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,7 +1243,7 @@
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1212,15 +1255,15 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -1228,133 +1271,133 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>189</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1363,35 +1406,53 @@
         <v>4</v>
       </c>
       <c r="D16" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
@@ -1456,7 +1517,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2" display="Admin@1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
     <hyperlink ref="C8" r:id="rId5"/>
@@ -1464,6 +1525,9 @@
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="C16" r:id="rId8"/>
     <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C18" r:id="rId11"/>
+    <hyperlink ref="C19" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1473,14 +1537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -1717,7 +1781,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1745,7 +1809,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1761,7 +1825,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1791,13 +1855,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1825,7 +1889,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1855,13 +1919,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1889,7 +1953,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -1905,7 +1969,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -1935,13 +1999,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1969,7 +2033,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -1985,7 +2049,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2015,13 +2079,13 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2049,7 +2113,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -2079,13 +2143,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2113,7 +2177,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -2143,13 +2207,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2177,7 +2241,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -2207,13 +2271,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="C45" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2241,7 +2305,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -2271,13 +2335,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2305,7 +2369,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -2335,13 +2399,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2369,7 +2433,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -2399,13 +2463,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2433,7 +2497,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -2463,13 +2527,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="C61" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -2511,7 +2575,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -2541,13 +2605,13 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -2574,7 +2638,9 @@
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="7"/>
+      <c r="A68" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
     </row>
@@ -2584,9 +2650,15 @@
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="7"/>
@@ -2594,7 +2666,9 @@
       <c r="C71" s="8"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="7"/>
+      <c r="A72" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
     </row>
@@ -2604,9 +2678,15 @@
       <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7"/>
@@ -2688,10 +2768,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -2704,16 +2784,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -2993,68 +3073,68 @@
         <v>7</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3064,7 +3144,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -3148,65 +3228,65 @@
         <v>7</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="19">
         <v>3393</v>
@@ -3219,7 +3299,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -3234,10 +3314,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="C3" s="19">
         <v>3393</v>
@@ -3249,10 +3329,10 @@
         <v>13000</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="H3" s="19">
         <v>85000</v>
@@ -3262,19 +3342,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="O3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P3" s="19">
         <v>1500</v>
@@ -3283,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
@@ -3291,10 +3371,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="C4" s="19">
         <v>3393</v>
@@ -3302,10 +3382,10 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="H4" s="19">
         <v>58000</v>
@@ -3316,16 +3396,16 @@
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="P4" s="19">
         <v>750</v>
@@ -3340,10 +3420,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="C5" s="19">
         <v>3393</v>
@@ -3355,10 +3435,10 @@
         <v>18500</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -3377,10 +3457,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="C6" s="19">
         <v>3393</v>
@@ -3392,16 +3472,16 @@
         <v>8950</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="19">
         <v>22000</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -3418,10 +3498,10 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="C7" s="19">
         <v>3393</v>
@@ -3447,10 +3527,10 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="C8" s="19">
         <v>3393</v>
@@ -3470,20 +3550,20 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="C9" s="19">
         <v>3393</v>
@@ -3586,66 +3666,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="20">
         <v>100</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="20">
         <v>-100</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="20">
         <v>1000</v>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="227">
   <si>
     <t>UserName</t>
   </si>
@@ -691,26 +691,28 @@
   </si>
   <si>
     <t>0375</t>
+  </si>
+  <si>
+    <t>MUrabha AppData Entry Customer Details</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_CD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_CD_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -821,25 +823,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,13 +845,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,20 +880,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1191,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,7 +1213,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1243,7 +1235,7 @@
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1254,7 +1246,7 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1265,7 +1257,7 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1276,10 +1268,10 @@
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1290,10 +1282,10 @@
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1307,7 +1299,7 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1321,7 +1313,7 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1335,7 +1327,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1346,38 +1338,38 @@
       <c r="B12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1391,7 +1383,7 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1402,13 +1394,13 @@
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1419,100 +1411,100 @@
       <c r="B17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1537,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1552,1186 +1544,1194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2761,286 +2761,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3066,126 +3066,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3221,420 +3221,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>3393</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>3393</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>1450000</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>13000</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>85000</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
         <v>100</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>1500</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>100</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>3393</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>58000</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18">
         <v>100</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <v>750</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>100</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>3393</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1150500</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>18500</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>3393</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>880000</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>8950</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>22000</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>3393</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>3393</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>3393</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3665,90 +3665,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>100</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>-100</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>1000</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="234">
   <si>
     <t>UserName</t>
   </si>
@@ -621,15 +621,6 @@
     <t>DS_AT_MU_UNW_006_05</t>
   </si>
   <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>0352</t>
-  </si>
-  <si>
-    <t>userType04_SA</t>
-  </si>
-  <si>
     <t>v0169</t>
   </si>
   <si>
@@ -700,13 +691,43 @@
   </si>
   <si>
     <t>DS_AT_MU_ADE_CD_01</t>
+  </si>
+  <si>
+    <t>userType18</t>
+  </si>
+  <si>
+    <t>0362</t>
+  </si>
+  <si>
+    <t>AutoLoan Offering Facility Details</t>
+  </si>
+  <si>
+    <t>AT_Al_OFF_FD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_Al_OFF_FD_01</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>userType19</t>
+  </si>
+  <si>
+    <t>Murabha App Data Check -- EmploymentDetails</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_EDC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_ADC_EDC_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,16 +743,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -823,19 +864,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,12 +884,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,15 +915,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,10 +1232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,7 +1323,7 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1285,7 +1337,7 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1299,8 +1351,11 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>83</v>
+      </c>
+      <c r="E9">
+        <v>1266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1313,7 +1368,7 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1327,7 +1382,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1341,35 +1396,35 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1383,39 +1438,36 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>201</v>
+      <c r="D16" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>205</v>
+      <c r="D17" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1423,33 +1475,42 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>222</v>
+      <c r="D18" s="20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>221</v>
+      <c r="D19" s="20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1500,11 +1561,6 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1516,10 +1572,11 @@
     <hyperlink ref="C12" r:id="rId6"/>
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C4" r:id="rId9"/>
+    <hyperlink ref="C17" r:id="rId10"/>
     <hyperlink ref="C18" r:id="rId11"/>
     <hyperlink ref="C19" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1527,10 +1584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1543,1195 +1601,1495 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="10" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="10" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="10" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="10" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="10" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="10" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="6" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
+      <c r="A37" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="10" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="A39" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="6" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="10" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="10" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="6" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="10" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="6" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
+      <c r="A53" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="10" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
+      <c r="A55" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="6" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
+      <c r="A57" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="10" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
+      <c r="A59" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="6" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
+      <c r="A61" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="10" t="s">
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
+      <c r="A64" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
+      <c r="A66" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="6" t="s">
+      <c r="C66" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
+      <c r="A68" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
+      <c r="A70" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B70" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="10" t="s">
+      <c r="C70" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75">
+      <c r="A72" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
+      <c r="A74" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75">
+      <c r="A76" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75">
+      <c r="A78" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75">
+      <c r="A80" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
+      <c r="A82" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
+      <c r="A84" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
+      <c r="A86" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,6 +3099,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2761,286 +3120,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3049,6 +3408,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,126 +3426,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,6 +3555,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3221,420 +3582,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <v>3393</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>3393</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>1450000</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>13000</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>85000</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
         <v>100</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="14">
         <v>1500</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="14">
         <v>100</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>3393</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>58000</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
         <v>100</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="14">
         <v>750</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="14">
         <v>100</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>3393</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>1150500</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>18500</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>3393</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>880000</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>8950</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>22000</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="14">
         <v>3393</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <v>3393</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>3393</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="20"/>
+      <c r="B18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,6 +4004,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3665,90 +4027,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>100</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="15">
         <v>-100</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="15">
         <v>1000</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="21"/>
+      <c r="B13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ULS_Jay/TestData/ijaraTestData.xlsx
+++ b/ULS_Jay/TestData/ijaraTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15390" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Mura_ADEntery_CustomerEMPdet" sheetId="4" r:id="rId4"/>
     <sheet name="Tawarruq_ADEntry_Income" sheetId="5" r:id="rId5"/>
     <sheet name="Tawarruq_ADEntry_LivingExpenses" sheetId="6" r:id="rId6"/>
+    <sheet name="PL_NewApp_CustomerDetails_610" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="254">
   <si>
     <t>UserName</t>
   </si>
@@ -678,9 +679,6 @@
     <t>Ijara AppDataEntry Facility Details</t>
   </si>
   <si>
-    <t>tawarrq AppData Check Document Details</t>
-  </si>
-  <si>
     <t>0375</t>
   </si>
   <si>
@@ -714,13 +712,76 @@
     <t>userType19</t>
   </si>
   <si>
-    <t>Murabha App Data Check -- EmploymentDetails</t>
-  </si>
-  <si>
     <t>AT_TW_ADC_EDC_01</t>
   </si>
   <si>
     <t>DS_AT_TW_ADC_EDC_01</t>
+  </si>
+  <si>
+    <t>Tawarruq App Data Check -- EmploymentDetails</t>
+  </si>
+  <si>
+    <t>tawarruq AppData Check Document Details</t>
+  </si>
+  <si>
+    <t>Personal Loan - NewApp - Customer Details</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_PL_NEWAPP_CD_01</t>
+  </si>
+  <si>
+    <t>5224</t>
+  </si>
+  <si>
+    <t>Application Number</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Id Type</t>
+  </si>
+  <si>
+    <t>Id Number</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DS_AT_PL_NEWAPP_CD_001</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individual Customer </t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AADHAR CARD </t>
+  </si>
+  <si>
+    <t>jack@gmail.com</t>
+  </si>
+  <si>
+    <t>28-Feb-2000</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Cif Id</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
   </si>
 </sst>
 </file>
@@ -872,7 +933,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -936,6 +997,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -1233,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1475,7 +1538,7 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1486,21 +1549,21 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>209</v>
@@ -1509,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1556,11 +1619,6 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1587,14 +1645,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -2817,7 +2875,7 @@
     </row>
     <row r="76" spans="1:12" ht="15.75">
       <c r="A76" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="24"/>
@@ -2847,10 +2905,10 @@
     </row>
     <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>222</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>47</v>
@@ -2881,7 +2939,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.75">
       <c r="A80" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -2911,13 +2969,13 @@
     </row>
     <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="C82" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>229</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -2945,7 +3003,7 @@
     </row>
     <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
@@ -2975,10 +3033,10 @@
     </row>
     <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>212</v>
@@ -3008,7 +3066,9 @@
       <c r="L87" s="27"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="23"/>
+      <c r="A88" s="26" t="s">
+        <v>234</v>
+      </c>
       <c r="B88" s="23"/>
       <c r="C88" s="24"/>
       <c r="D88" s="27"/>
@@ -3036,9 +3096,15 @@
       <c r="L89" s="27"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
+      <c r="A90" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
@@ -4008,7 +4074,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4115,4 +4181,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2">
+        <v>751</v>
+      </c>
+      <c r="E2">
+        <v>5555</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2">
+        <v>785</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9874561230</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="I9" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>